--- a/data/trans_orig/IP12_R2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12_R2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C9FC58-BB72-4282-91E1-EE76D60AA8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4EC933-1692-473A-96CC-366ADFC987D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2EB1570-AD7B-48B8-9EA8-8AF8B9ABB6B3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4FEB4CE4-C74D-42C0-9A6B-750438606E6F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,118 +74,118 @@
     <t>8,94%</t>
   </si>
   <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
     <t>94,36%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
   </si>
   <si>
     <t>93,64%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
   </si>
   <si>
     <t>4,71%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
   </si>
   <si>
     <t>95,65%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,64 +251,64 @@
     <t>6,01%</t>
   </si>
   <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
   </si>
   <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
   </si>
   <si>
     <t>93,99%</t>
   </si>
   <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
   </si>
   <si>
     <t>95,98%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
   </si>
   <si>
     <t>5,01%</t>
@@ -317,7 +317,7 @@
     <t>3,75%</t>
   </si>
   <si>
-    <t>6,55%</t>
+    <t>6,62%</t>
   </si>
   <si>
     <t>5,55%</t>
@@ -326,22 +326,22 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>6,72%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
   </si>
   <si>
     <t>94,99%</t>
   </si>
   <si>
-    <t>93,45%</t>
+    <t>93,38%</t>
   </si>
   <si>
     <t>96,25%</t>
@@ -350,7 +350,7 @@
     <t>94,45%</t>
   </si>
   <si>
-    <t>93,41%</t>
+    <t>93,28%</t>
   </si>
   <si>
     <t>95,42%</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FEB11C9-E9DC-46CF-9824-C2D893503270}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4136191-9A02-4134-8D79-6CFE27F093E6}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
